--- a/Documentation/Sprint3/Sprint 3.xlsx
+++ b/Documentation/Sprint3/Sprint 3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Sprint 3</t>
   </si>
@@ -83,72 +83,6 @@
   </si>
   <si>
     <t>Sabeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backlog </t>
-  </si>
-  <si>
-    <t>Requirment ID</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Sprint #</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Implement a statistics page that shows data on parking lot usage trends, including peak and off-peak hours</t>
-  </si>
-  <si>
-    <t>Display busy hours on the stats page using color coding (e.g., green for light, yellow for moderate, red for heavy usage)</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Display the total number of available and occupied parking spots for each lot across campus.</t>
-  </si>
-  <si>
-    <t>Use a progress bar visualization to indicate how full each parking lot is in real time.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Mark parking lots available to yellow permit holders.</t>
-  </si>
-  <si>
-    <t>Mark parking lots available to red permit holders.</t>
-  </si>
-  <si>
-    <t>Mark parking lots available to Central District Parking Garage Holders</t>
-  </si>
-  <si>
-    <t>Mark parking lots available to Union Garage holders.</t>
-  </si>
-  <si>
-    <t>Add a manual refresh button to allow users to reload parking availability data.</t>
-  </si>
-  <si>
-    <t>Display the last updated time for parking data to inform users of data freshness.</t>
-  </si>
-  <si>
-    <t>Allow users to search for a specific parking lot by name or permit type within the app.</t>
-  </si>
-  <si>
-    <t>App saves previous filters used for parking lot searching</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>A map that displays where the parking lot is located</t>
-  </si>
-  <si>
-    <t>Add a filter that filters based on availability, permit, and distance</t>
   </si>
 </sst>
 </file>
@@ -735,9 +669,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1"/>
     <row r="15">
-      <c r="B15" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -745,399 +677,179 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16">
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17">
-      <c r="B17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18">
-      <c r="B18" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19">
-      <c r="B19" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20">
-      <c r="B20" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21">
-      <c r="B21" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="10">
-        <v>2.0</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22">
-      <c r="B22" s="7">
-        <v>4.1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23">
-      <c r="B23" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24">
-      <c r="B24" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25">
-      <c r="B25" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26">
-      <c r="B26" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27">
-      <c r="B27" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="19"/>
     </row>
     <row r="28">
-      <c r="B28" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="19"/>
     </row>
     <row r="29">
-      <c r="B29" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30">
-      <c r="B30" s="7">
-        <v>8.2</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31">
-      <c r="B31" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="19"/>
     </row>
     <row r="32">
-      <c r="B32" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33">
-      <c r="B33" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34">
-      <c r="B34" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="19"/>
     </row>
     <row r="35">
-      <c r="B35" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36">
-      <c r="B36" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37">
-      <c r="B37" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2.0</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
   </sheetData>

--- a/Documentation/Sprint3/Sprint 3.xlsx
+++ b/Documentation/Sprint3/Sprint 3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sprint 3</t>
   </si>
@@ -31,13 +31,10 @@
     <t>Create a landing page that introduces the app and provides navigation to key features like lot availability and stats</t>
   </si>
   <si>
-    <t>Merged</t>
-  </si>
-  <si>
     <t>Provide a calendar view showing dates and times when parking is restricted due to campus events(e.g. Basektball Game)</t>
   </si>
   <si>
-    <t>PR Made</t>
+    <t>Samantha</t>
   </si>
   <si>
     <t>Allow users to submit bug reports or feedback directly to the app administrators.</t>
@@ -46,12 +43,6 @@
     <t>Tanu</t>
   </si>
   <si>
-    <t>Provide a toggle for users to switch between dark and light UI themes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaden </t>
-  </si>
-  <si>
     <t>Display a banner notification on the homepage (e.g., “Restricted parking today!”) during special events.</t>
   </si>
   <si>
@@ -79,10 +70,22 @@
     <t>Kaden</t>
   </si>
   <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Req #</t>
+  </si>
+  <si>
+    <t>Bug 1</t>
+  </si>
+  <si>
     <t>Fix Timing to make them all the same</t>
   </si>
   <si>
-    <t>Sabeen</t>
+    <t>Bug 2</t>
+  </si>
+  <si>
+    <t>Calendar and banner notification should pull from same data model</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -212,9 +215,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -524,173 +524,165 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="7">
         <v>5.0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
         <v>8.0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" s="7">
         <v>6.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>5.0</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="9">
         <v>5.0</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
         <v>1.0</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" ht="15.0" customHeight="1"/>
+    <row r="14">
+      <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14">
         <v>1.0</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="1"/>
-    <row r="15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3.0</v>
+      </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18">
       <c r="B18" s="7"/>
@@ -713,7 +705,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21">
@@ -721,7 +713,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22">
@@ -753,8 +745,8 @@
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26">
       <c r="B26" s="7"/>
@@ -762,7 +754,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27">
       <c r="B27" s="7"/>
@@ -770,15 +762,15 @@
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="19"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29">
       <c r="B29" s="7"/>
@@ -793,16 +785,16 @@
       <c r="C30" s="8"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="19"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32">
       <c r="B32" s="7"/>
@@ -817,8 +809,8 @@
       <c r="C33" s="8"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34">
       <c r="B34" s="7"/>
@@ -826,15 +818,15 @@
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="19"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36">
       <c r="B36" s="7"/>
@@ -844,14 +836,6 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
